--- a/public/file/template-excel-payroll/template-import-payroll_V5.xlsx
+++ b/public/file/template-excel-payroll/template-import-payroll_V5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\template test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\public\file\template-excel-payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C384F0B-0F21-46CE-A5F4-3E86061C0E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE1DF23-654E-4D3C-9B80-CCE5792B04B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C1D3C4D-2C0A-417F-9E29-D32469390088}"/>
   </bookViews>
@@ -33,15 +33,9 @@
     <t>KASBON</t>
   </si>
   <si>
-    <t>ADMIN</t>
-  </si>
-  <si>
     <t>EMPLOYEE ID</t>
   </si>
   <si>
-    <t>SERAGAM</t>
-  </si>
-  <si>
     <t>KOPERASI</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>END DATE</t>
   </si>
   <si>
-    <t>ABSENSI</t>
-  </si>
-  <si>
     <t>BRANCH CODE</t>
   </si>
   <si>
@@ -63,9 +54,6 @@
     <t>BPJS KESEHATAN</t>
   </si>
   <si>
-    <t>POTONGAN LAIN-LAIN</t>
-  </si>
-  <si>
     <t>RAPEL</t>
   </si>
   <si>
@@ -105,13 +93,25 @@
     <t>PREMI STOCK OPNAME</t>
   </si>
   <si>
-    <t>POTONGAN INSENTIF KEDISIPLINAN</t>
-  </si>
-  <si>
-    <t>POTONGAN SALARY</t>
-  </si>
-  <si>
     <t>POSITION ALLOWANCE</t>
+  </si>
+  <si>
+    <t>POT. SERAGAM</t>
+  </si>
+  <si>
+    <t>POT.  INSENTIF KEDISIPLINAN</t>
+  </si>
+  <si>
+    <t>POT.  SALARY</t>
+  </si>
+  <si>
+    <t>POT.  LAIN-LAIN</t>
+  </si>
+  <si>
+    <t>POT. ADMIN</t>
+  </si>
+  <si>
+    <t>POT. ABSENSI</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -253,6 +253,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,14 +579,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A74985-BA75-4F29-9578-1CA84A0303AC}">
   <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="15" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
@@ -594,102 +602,103 @@
     <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="18" max="18" width="13.140625" customWidth="1"/>
     <col min="19" max="20" width="23.42578125" customWidth="1"/>
-    <col min="21" max="21" width="12.5703125" customWidth="1"/>
-    <col min="22" max="23" width="12.140625" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" customWidth="1"/>
+    <col min="23" max="23" width="22" customWidth="1"/>
     <col min="24" max="25" width="23" customWidth="1"/>
     <col min="26" max="26" width="21.28515625" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" customWidth="1"/>
-    <col min="28" max="28" width="16.42578125" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" style="17" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="17" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>3</v>
+      <c r="B1" s="14" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="N1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="O1" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
